--- a/planning/assets/formatsXlsx/Productos_Materias.xlsx
+++ b/planning/assets/formatsXlsx/Productos_Materias.xlsx
@@ -158,9 +158,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,13 +167,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -196,20 +196,15 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -224,21 +219,8 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -252,7 +234,22 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -266,6 +263,7 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -280,16 +278,8 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -298,10 +288,10 @@
           <color indexed="64"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -317,12 +307,30 @@
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -372,13 +380,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="5">
-    <tableColumn id="2" name="referencia_producto" dataDxfId="4"/>
-    <tableColumn id="1" name="producto" dataDxfId="1"/>
+    <tableColumn id="2" name="referencia_producto" dataDxfId="5"/>
+    <tableColumn id="1" name="producto" dataDxfId="4"/>
     <tableColumn id="3" name="referencia_material" dataDxfId="3"/>
-    <tableColumn id="4" name="material" dataDxfId="0"/>
-    <tableColumn id="5" name="cantidad" dataDxfId="2"/>
+    <tableColumn id="4" name="material" dataDxfId="2"/>
+    <tableColumn id="5" name="cantidad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -672,7 +680,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -687,61 +695,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>